--- a/Output/pair_comparaison_modif_bis.xlsx
+++ b/Output/pair_comparaison_modif_bis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilona.garcia\Documents\RstudioGIT\Etudebiophysico\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D847DA-8BF1-44C7-B2AD-17BBBA9FD9EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E62F6AC-DEFA-4005-B153-6843B723731E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
